--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/VIRGINIA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/VIRGINIA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1156"/>
+  <dimension ref="A1:D1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C32">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C40">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C57">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C68">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C96">
@@ -1647,7 +1647,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C97">
@@ -1886,7 +1886,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C115">
@@ -2008,7 +2008,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2065,7 +2065,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C128">
@@ -2252,7 +2252,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C142">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C153">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C155">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C157">
@@ -2512,12 +2512,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C164">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C168">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C178">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C181">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C191">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C200">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C207">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C214">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C218">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C219">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C229">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C230">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C231">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C238">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C242">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C249">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C253">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C255">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C257">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C259">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C261">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C265">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C271">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C273">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C278">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C281">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C286">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C291">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C301">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C318">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C320">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C324">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C337">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C343">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C345">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C348">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C355">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C358">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C361">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C363">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C367">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C369">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C370">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C371">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C377">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C378">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C380">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C384">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C388">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C396">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C403">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C408">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C410">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C413">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C415">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C416">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C419">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C421">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C427">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C428">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C429">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C433">
@@ -6080,7 +6080,7 @@
         <v>58</v>
       </c>
       <c r="D434">
-        <v>0.009290405253884351</v>
+        <v>0.009290405253884353</v>
       </c>
     </row>
     <row r="435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C436">
@@ -7071,7 +7071,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C510">
@@ -7175,7 +7175,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C518">
@@ -7240,7 +7240,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C523">
@@ -7253,7 +7253,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C524">
@@ -7305,7 +7305,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C528">
@@ -7375,7 +7375,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C533">
@@ -7562,7 +7562,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C547">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C552">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C556">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C560">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C564">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C568">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C570">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C571">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C575">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C577">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C579">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C580">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C581">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C583">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C600">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C604">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C610">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C637">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C641">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C669">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C680">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C690">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C723">
@@ -10037,7 +10037,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C737">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C738">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C740">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C741">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C742">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C743">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C747">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C748">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C751">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C753">
@@ -10419,7 +10419,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C766">
@@ -10614,7 +10614,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C781">
@@ -10653,7 +10653,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C784">
@@ -10679,7 +10679,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C786">
@@ -10770,7 +10770,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C793">
@@ -10809,7 +10809,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C796">
@@ -10978,7 +10978,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C809">
@@ -10991,7 +10991,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C810">
@@ -11082,7 +11082,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C817">
@@ -11121,7 +11121,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C820">
@@ -11147,7 +11147,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C822">
@@ -11186,7 +11186,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C825">
@@ -11316,7 +11316,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C835">
@@ -11490,7 +11490,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C848">
@@ -11516,7 +11516,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C850">
@@ -11581,7 +11581,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C855">
@@ -11594,7 +11594,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C856">
@@ -11633,7 +11633,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C859">
@@ -11672,7 +11672,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C862">
@@ -11864,7 +11864,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C876">
@@ -11968,7 +11968,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C884">
@@ -12033,7 +12033,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C889">
@@ -12085,7 +12085,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C893">
@@ -12150,7 +12150,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C898">
@@ -12202,7 +12202,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C902">
@@ -12215,7 +12215,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C903">
@@ -12228,7 +12228,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C904">
@@ -12241,7 +12241,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C905">
@@ -12254,7 +12254,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C906">
@@ -12646,7 +12646,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C935">
@@ -13137,7 +13137,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C972">
@@ -13163,7 +13163,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C974">
@@ -13176,7 +13176,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C975">
@@ -13215,7 +13215,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C978">
@@ -13267,7 +13267,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C982">
@@ -13402,7 +13402,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C992">
@@ -13454,7 +13454,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C996">
@@ -13558,7 +13558,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1004">
@@ -13597,7 +13597,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1007">
@@ -13649,7 +13649,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1011">
@@ -13701,7 +13701,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1015">
@@ -13714,7 +13714,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1016">
@@ -13896,7 +13896,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1030">
@@ -13909,7 +13909,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1031">
@@ -13935,7 +13935,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1033">
@@ -13948,7 +13948,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1034">
@@ -13961,7 +13961,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1035">
@@ -14052,7 +14052,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1042">
@@ -14143,7 +14143,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1049">
@@ -14169,7 +14169,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1051">
@@ -14221,7 +14221,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1055">
@@ -14351,7 +14351,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1065">
@@ -14364,7 +14364,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1066">
@@ -14403,7 +14403,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1069">
@@ -14481,7 +14481,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1075">
@@ -14533,7 +14533,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1079">
@@ -14819,7 +14819,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1101">
@@ -15063,7 +15063,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1119">
@@ -15167,7 +15167,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1127">
@@ -15219,7 +15219,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1131">
@@ -15245,7 +15245,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1133">
@@ -15349,7 +15349,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1141">
@@ -15362,7 +15362,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1142">
@@ -15388,7 +15388,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1144">
@@ -15474,41 +15474,6 @@
       </c>
       <c r="D1150">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
